--- a/feature/prepare-publication-1.1.0/ig/StructureDefinition-FrPractitionerRegul.xlsx
+++ b/feature/prepare-publication-1.1.0/ig/StructureDefinition-FrPractitionerRegul.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-04T09:55:54+00:00</t>
+    <t>2024-12-05T09:39:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/prepare-publication-1.1.0/ig/StructureDefinition-FrPractitionerRegul.xlsx
+++ b/feature/prepare-publication-1.1.0/ig/StructureDefinition-FrPractitionerRegul.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-05T09:39:14+00:00</t>
+    <t>2024-12-05T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
